--- a/biology/Médecine/Hôpital_de_la_Renaissance/Hôpital_de_la_Renaissance.xlsx
+++ b/biology/Médecine/Hôpital_de_la_Renaissance/Hôpital_de_la_Renaissance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_la_Renaissance</t>
+          <t>Hôpital_de_la_Renaissance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’hôpital de la Renaissance (anciennement appelé hôpital moderne de N'Djaména) est un établissement public hospitalier tchadien inauguré le 29 novembre 2013[1],[2], situé dans le 8e arrondissement de N'Djaména et placé sous la tutelle du ministère de la Santé publique du Tchad[3].
+L’hôpital de la Renaissance (anciennement appelé hôpital moderne de N'Djaména) est un établissement public hospitalier tchadien inauguré le 29 novembre 2013 situé dans le 8e arrondissement de N'Djaména et placé sous la tutelle du ministère de la Santé publique du Tchad.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_la_Renaissance</t>
+          <t>Hôpital_de_la_Renaissance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Voulu par le président Idriss Déby afin d'offrir des soins de qualité à la population tchadienne, l'hôpital de la Renaissance a été construit afin d'être une alternative aux évacuations sanitaires vers l'étranger de patients tchadiens[4] grâce à un plateau technique conforme aux standards internationaux[2]. La construction de l'établissement à intégralement été financée par l'État tchadien, à hauteur de 34 milliards de francs CFA[2].
-Localisation
-Situé dans le 8ème  arrondissement de la capitale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voulu par le président Idriss Déby afin d'offrir des soins de qualité à la population tchadienne, l'hôpital de la Renaissance a été construit afin d'être une alternative aux évacuations sanitaires vers l'étranger de patients tchadiens grâce à un plateau technique conforme aux standards internationaux. La construction de l'établissement à intégralement été financée par l'État tchadien, à hauteur de 34 milliards de francs CFA.
 </t>
         </is>
       </c>
@@ -527,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_la_Renaissance</t>
+          <t>Hôpital_de_la_Renaissance</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Direction
-L'hôpital de la Renaissance est actuellement dirigé par Gustave Bassanguen, directeur général, et Ali Djibrine, directeur général adjoint[5].
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Situé dans le 8ème  arrondissement de la capitale.
 </t>
         </is>
       </c>
@@ -559,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_la_Renaissance</t>
+          <t>Hôpital_de_la_Renaissance</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +591,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Direction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital de la Renaissance est actuellement dirigé par Gustave Bassanguen, directeur général, et Ali Djibrine, directeur général adjoint.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hôpital_de_la_Renaissance</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_de_la_Renaissance</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Plateau technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
